--- a/Documents/Import form.xlsx
+++ b/Documents/Import form.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\qlts\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\qlts\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E54011-E8B4-40E3-BC0D-DC842ECFD80D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2376" windowWidth="23040" windowHeight="12204" xr2:uid="{817BD3F8-0E0A-44BE-9143-B7F0C0A89605}"/>
+    <workbookView xWindow="2160" yWindow="2370" windowWidth="23040" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>TT</t>
   </si>
@@ -186,16 +185,52 @@
     <t>Trung binhf</t>
   </si>
   <si>
-    <t>Số lượng</t>
-  </si>
-  <si>
     <t>Tên tài sản</t>
+  </si>
+  <si>
+    <t>Giá trị còn lại</t>
+  </si>
+  <si>
+    <t>Hao mòn lũy kế</t>
+  </si>
+  <si>
+    <t>Số lượng kế toán</t>
+  </si>
+  <si>
+    <t>Mã nhóm tài sản</t>
+  </si>
+  <si>
+    <t>Tên nhóm tài sản</t>
+  </si>
+  <si>
+    <t>Số chỗ ngồi</t>
+  </si>
+  <si>
+    <t>Cấp công trình</t>
+  </si>
+  <si>
+    <t>Số lượng kiểm kê</t>
+  </si>
+  <si>
+    <t>Số tầng</t>
+  </si>
+  <si>
+    <t>Diện tích xây dựng</t>
+  </si>
+  <si>
+    <t>Địa chỉ</t>
+  </si>
+  <si>
+    <t>Diện tích khuân viên</t>
+  </si>
+  <si>
+    <t>Dung thích xi lanh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
@@ -365,7 +400,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -417,9 +452,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -774,247 +806,291 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9E1DF5-315A-483C-A3E1-4E935F21E046}">
-  <dimension ref="A1:X16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="7" style="2" customWidth="1"/>
-    <col min="4" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" style="2" customWidth="1"/>
-    <col min="9" max="15" width="9.109375" style="2"/>
-    <col min="16" max="16" width="16.33203125" style="2" customWidth="1"/>
-    <col min="17" max="20" width="9.109375" style="2"/>
-    <col min="21" max="22" width="9.109375" style="17"/>
-    <col min="23" max="23" width="16" style="17" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.109375" style="14"/>
-    <col min="25" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="5" width="7" style="2" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.5703125" style="2" customWidth="1"/>
+    <col min="12" max="17" width="9.140625" style="2"/>
+    <col min="18" max="23" width="16.28515625" style="2" customWidth="1"/>
+    <col min="24" max="27" width="9.140625" style="2"/>
+    <col min="28" max="29" width="9.140625" style="17"/>
+    <col min="30" max="30" width="9.140625" style="14"/>
+    <col min="31" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:36" ht="63" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="T1" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="W1" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="X1" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA1" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" s="30">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30">
+        <v>2</v>
+      </c>
+      <c r="C2" s="30">
+        <v>3</v>
+      </c>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30">
+        <v>4</v>
+      </c>
+      <c r="G2" s="30">
+        <v>5</v>
+      </c>
+      <c r="H2" s="30">
+        <v>6</v>
+      </c>
+      <c r="I2" s="30">
+        <v>7</v>
+      </c>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30">
+        <v>8</v>
+      </c>
+      <c r="L2" s="30">
+        <v>9</v>
+      </c>
+      <c r="M2" s="30">
+        <v>10</v>
+      </c>
+      <c r="N2" s="30">
         <v>11</v>
       </c>
-      <c r="E1" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="22" t="s">
+      <c r="O2" s="30">
+        <v>12</v>
+      </c>
+      <c r="P2" s="30">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="30">
+        <v>14</v>
+      </c>
+      <c r="R2" s="30">
+        <v>16</v>
+      </c>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30">
+        <v>17</v>
+      </c>
+      <c r="Y2" s="30">
+        <v>18</v>
+      </c>
+      <c r="Z2" s="30">
+        <v>19</v>
+      </c>
+      <c r="AA2" s="30">
+        <v>20</v>
+      </c>
+      <c r="AB2" s="30">
+        <v>21</v>
+      </c>
+      <c r="AC2" s="30">
+        <v>22</v>
+      </c>
+      <c r="AD2" s="30">
         <v>24</v>
       </c>
-      <c r="I1" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="22" t="s">
+    </row>
+    <row r="3" spans="1:36" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
         <v>1</v>
       </c>
-      <c r="N1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="S1" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="T1" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="U1" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="V1" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="W1" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="X1" s="24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="31">
-        <v>1</v>
-      </c>
-      <c r="B2" s="31">
-        <v>2</v>
-      </c>
-      <c r="C2" s="31">
-        <v>3</v>
-      </c>
-      <c r="D2" s="31">
-        <v>4</v>
-      </c>
-      <c r="E2" s="31">
-        <v>5</v>
-      </c>
-      <c r="F2" s="31">
+      <c r="B3" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="31">
-        <v>7</v>
-      </c>
-      <c r="H2" s="31">
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="20">
+        <v>2017</v>
+      </c>
+      <c r="P3" s="20">
+        <v>2011</v>
+      </c>
+      <c r="Q3" s="20">
+        <v>2011</v>
+      </c>
+      <c r="R3" s="26">
+        <v>1405500000</v>
+      </c>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="31">
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="31">
-        <v>10</v>
-      </c>
-      <c r="K2" s="31">
-        <v>11</v>
-      </c>
-      <c r="L2" s="31">
-        <v>12</v>
-      </c>
-      <c r="M2" s="31">
-        <v>13</v>
-      </c>
-      <c r="N2" s="31">
-        <v>14</v>
-      </c>
-      <c r="O2" s="31">
-        <v>15</v>
-      </c>
-      <c r="P2" s="31">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="31">
-        <v>17</v>
-      </c>
-      <c r="R2" s="31">
-        <v>18</v>
-      </c>
-      <c r="S2" s="31">
-        <v>19</v>
-      </c>
-      <c r="T2" s="31">
-        <v>20</v>
-      </c>
-      <c r="U2" s="31">
-        <v>21</v>
-      </c>
-      <c r="V2" s="31">
-        <v>22</v>
-      </c>
-      <c r="W2" s="31">
-        <v>23</v>
-      </c>
-      <c r="X2" s="31">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="21">
-        <v>1</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="21">
-        <v>2017</v>
-      </c>
-      <c r="M3" s="21">
-        <v>2011</v>
-      </c>
-      <c r="N3" s="21">
-        <v>2011</v>
-      </c>
-      <c r="O3" s="21"/>
-      <c r="P3" s="27">
-        <v>1405500000</v>
-      </c>
-      <c r="Q3" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="V3" s="29"/>
-      <c r="X3" s="30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="46.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:36" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -1024,31 +1100,37 @@
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
-      <c r="U4" s="15" t="s">
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="V4" s="16" t="s">
+      <c r="AC4" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="W4" s="18"/>
-      <c r="X4" s="11"/>
-    </row>
-    <row r="5" spans="1:24" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="AD4" s="11"/>
+    </row>
+    <row r="5" spans="1:36" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -1058,133 +1140,151 @@
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
-      <c r="U5" s="15" t="s">
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="V5" s="16" t="s">
+      <c r="AC5" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="W5" s="18"/>
-      <c r="X5" s="11"/>
-    </row>
-    <row r="6" spans="1:24" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="AD5" s="11"/>
+    </row>
+    <row r="6" spans="1:36" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>3</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="5">
+      <c r="I6" s="5">
         <v>8700</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="J6" s="5"/>
+      <c r="K6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="L6" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="M6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="N6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="8">
+      <c r="O6" s="8">
         <v>2019</v>
       </c>
-      <c r="M6" s="7">
+      <c r="P6" s="7">
         <v>2019</v>
       </c>
-      <c r="N6" s="7">
+      <c r="Q6" s="7">
         <v>2020</v>
       </c>
-      <c r="O6" s="7"/>
-      <c r="P6" s="20">
+      <c r="R6" s="19">
         <v>20000000</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="Y6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="Z6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="AA6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="U6" s="16" t="s">
+      <c r="AB6" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="V6" s="16" t="s">
+      <c r="AC6" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="W6" s="16"/>
-      <c r="X6" s="12"/>
-    </row>
-    <row r="7" spans="1:24" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="AD6" s="12"/>
+    </row>
+    <row r="7" spans="1:36" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="7" t="s">
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7" t="s">
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="T7" s="7" t="s">
+      <c r="AA7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="U7" s="16" t="s">
+      <c r="AB7" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="12"/>
-    </row>
-    <row r="8" spans="1:24" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="12"/>
+    </row>
+    <row r="8" spans="1:36" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
@@ -1194,27 +1294,33 @@
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="12"/>
-    </row>
-    <row r="9" spans="1:24" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="12"/>
+    </row>
+    <row r="9" spans="1:36" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="G9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
       <c r="H9" s="10"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -1224,31 +1330,37 @@
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="13"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="D16" s="1"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="13"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="F16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
